--- a/Mifos Automation Excels/Client/2479-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-PATTERN-VAR-INST-PERIODIC-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2479-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-PATTERN-VAR-INST-PERIODIC-Makerepayment2.xlsx
@@ -109,18 +109,12 @@
     <t>Cash(1)</t>
   </si>
   <si>
-    <t>L14</t>
-  </si>
-  <si>
     <t>Interest Receivable(3)</t>
   </si>
   <si>
     <t>L15</t>
   </si>
   <si>
-    <t>L46</t>
-  </si>
-  <si>
     <t>Accrual</t>
   </si>
   <si>
@@ -133,31 +127,37 @@
     <t>Income from interest(7)</t>
   </si>
   <si>
-    <t>L42</t>
-  </si>
-  <si>
-    <t>L44</t>
-  </si>
-  <si>
-    <t>L47</t>
+    <t>L89</t>
+  </si>
+  <si>
+    <t>L94</t>
+  </si>
+  <si>
+    <t>L91</t>
+  </si>
+  <si>
+    <t>L92</t>
+  </si>
+  <si>
+    <t>L95</t>
   </si>
   <si>
     <t>$ 51.79</t>
   </si>
   <si>
+    <t>$ 42.99</t>
+  </si>
+  <si>
+    <t>$ 80.35</t>
+  </si>
+  <si>
+    <t>$ 857.01</t>
+  </si>
+  <si>
     <t>$ 900</t>
   </si>
   <si>
-    <t>$ 951.79</t>
-  </si>
-  <si>
-    <t>$ 42.48</t>
-  </si>
-  <si>
-    <t>$ 942.48</t>
-  </si>
-  <si>
-    <t>$ 79.35</t>
+    <t>$ 848.21</t>
   </si>
 </sst>
 </file>
@@ -253,9 +253,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -267,6 +264,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -608,10 +608,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:J8"/>
+      <selection activeCell="A2" sqref="A2:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -661,9 +661,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>3585</v>
+        <v>95</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -672,16 +672,16 @@
         <v>42095</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" s="4">
-        <v>79.349999999999994</v>
+        <v>80.349999999999994</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>79.349999999999994</v>
+        <v>80.349999999999994</v>
       </c>
       <c r="H2" s="4">
         <v>0</v>
@@ -695,9 +695,9 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>3584</v>
+        <v>94</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>11</v>
@@ -709,13 +709,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="4">
-        <v>942.48</v>
+        <v>900</v>
       </c>
       <c r="F3" s="4">
-        <v>900</v>
+        <v>857.01</v>
       </c>
       <c r="G3" s="4">
-        <v>42.48</v>
+        <v>42.99</v>
       </c>
       <c r="H3" s="4">
         <v>0</v>
@@ -723,15 +723,17 @@
       <c r="I3" s="4">
         <v>0</v>
       </c>
-      <c r="J3" s="6">
-        <v>8200</v>
+      <c r="J3" s="7">
+        <v>8294.7800000000007</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>3582</v>
+        <v>92</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
@@ -740,16 +742,16 @@
         <v>42065</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="4">
-        <v>42.48</v>
+        <v>42.99</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>42.48</v>
+        <v>42.99</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
@@ -762,10 +764,12 @@
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>3580</v>
+        <v>90</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
@@ -791,15 +795,17 @@
       <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="J5" s="6">
-        <v>9100</v>
+      <c r="J5" s="7">
+        <v>9151.7900000000009</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>3581</v>
+        <v>91</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
@@ -808,7 +814,7 @@
         <v>42037</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="4">
         <v>51.79</v>
@@ -830,10 +836,12 @@
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6"/>
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>3579</v>
+        <v>89</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -845,10 +853,10 @@
         <v>15</v>
       </c>
       <c r="E7" s="4">
-        <v>951.79</v>
+        <v>900</v>
       </c>
       <c r="F7" s="4">
-        <v>900</v>
+        <v>848.21</v>
       </c>
       <c r="G7" s="4">
         <v>51.79</v>
@@ -859,15 +867,15 @@
       <c r="I7" s="4">
         <v>0</v>
       </c>
-      <c r="J7" s="6">
-        <v>4100</v>
+      <c r="J7" s="7">
+        <v>4151.79</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>3577</v>
+        <v>88</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -1014,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1040,7 @@
     <col min="8" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1061,106 +1069,86 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>31</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="12">
-        <v>42050</v>
-      </c>
-      <c r="D2" s="11" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>179</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5">
+        <v>42037</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>180</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5">
+        <v>42037</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>32</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="12">
-        <v>42050</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>181</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>42037</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>33</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="12">
-        <v>42050</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="7"/>
+      <c r="H4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1172,7 +1160,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,7 +1216,7 @@
         <v>42064</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>24</v>
@@ -1239,10 +1227,10 @@
       <c r="G2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -1255,7 +1243,7 @@
         <v>42064</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>24</v>
@@ -1266,8 +1254,8 @@
       <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1278,27 +1266,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="7.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1327,115 +1315,86 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>100</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="11">
-        <v>42064</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="11" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>192</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="16">
+        <v>42065</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>26</v>
+      <c r="G2" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>101</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="11">
-        <v>42064</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="11" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>193</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="16">
+        <v>42065</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>30</v>
+      <c r="G3" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>102</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="11">
-        <v>42064</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="11" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>194</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="16">
+        <v>42065</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="14" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>44</v>
       </c>
       <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1444,57 +1403,57 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="7.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -1509,19 +1468,19 @@
         <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>11</v>
@@ -1533,26 +1492,26 @@
         <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
@@ -1567,19 +1526,19 @@
         <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
@@ -1591,26 +1550,26 @@
         <v>38</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H6" s="17"/>
+      <c r="I6" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -1628,16 +1587,16 @@
         <v>25</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
@@ -1649,27 +1608,18 @@
         <v>39</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
